--- a/excel/Caja Carayá.xlsx
+++ b/excel/Caja Carayá.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\caraya\caja\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA11569-C5FB-4740-A9EE-0CB57B89B837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EED4661-7BD2-4C8F-881B-9D103EE6F666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="18000" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="18">
   <si>
     <t>Caja de carayá</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>Gastos BA 2023</t>
+  </si>
+  <si>
+    <t>Rifa 123 Premios</t>
+  </si>
+  <si>
+    <t>Viaje A Salta 2023</t>
   </si>
 </sst>
 </file>
@@ -532,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A6:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -945,12 +951,22 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
+      <c r="A33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="3">
+        <v>45201</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
+      <c r="E33" s="2">
+        <v>88500</v>
+      </c>
+      <c r="F33" s="2">
+        <v>152633</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
@@ -981,12 +997,22 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
+      <c r="A36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="3">
+        <v>45211</v>
+      </c>
       <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
+      <c r="D36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="2">
+        <v>102000</v>
+      </c>
+      <c r="F36" s="2">
+        <v>50633</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
